--- a/TestData/LambdaTest_Ecommerce Test Cases.xlsx
+++ b/TestData/LambdaTest_Ecommerce Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TC01_Login" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="TC09_EditDeleteAddress" sheetId="9" r:id="rId9"/>
     <sheet name="TC10_AddToWishlist" sheetId="10" r:id="rId10"/>
     <sheet name="TC11_AddToCart" sheetId="11" r:id="rId11"/>
+    <sheet name="TC12_PlaceOrder" sheetId="14" r:id="rId12"/>
+    <sheet name="TC13_CompareItems" sheetId="15" r:id="rId13"/>
+    <sheet name="TC14_SearchItems" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="240">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -686,6 +689,126 @@
   </si>
   <si>
     <t>verify user is unable to delete the existing address (if only one address available)</t>
+  </si>
+  <si>
+    <t>Verify user is able to place order on existing address</t>
+  </si>
+  <si>
+    <t>verify user is able to place order on new address</t>
+  </si>
+  <si>
+    <t>verify user is able to place order on different billing and shipping address</t>
+  </si>
+  <si>
+    <t>Verify user is unable to place order of item which is out of stock (not available)</t>
+  </si>
+  <si>
+    <t>verify user is unable to place order on empty list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Click on cart icon                                                 3. click on checkout                      4. enter details and select existing address check box         5. select address from existing drop down                                     6. confirm order     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Click on cart icon                                                 3. click on checkout                      4. enter details and select existing address radio button        5. select address from existing drop down                                     6. confirm order     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Click on cart icon                                                 3. click on checkout                      4. enter details and select new address radio button                 5. new address details                                     6. confirm order     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Click on cart icon                                                 3. click on checkout                      4. enter details and select existing address radio button         5. select address from existing drop down                                     6. select different billing and shipping address check box        7. Select shipping address from drop down                                   8. confirm order     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. click on cart icon                                          3. click on checkout                                                                    </t>
+  </si>
+  <si>
+    <t>product not available message should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2.  Go to cart                                                                               </t>
+  </si>
+  <si>
+    <t>Shopping Cart is empty message should be displayed</t>
+  </si>
+  <si>
+    <t>valid credential for login and item should be added in the cart</t>
+  </si>
+  <si>
+    <t>valid credential for login and item (which is not available )should be added in the cart</t>
+  </si>
+  <si>
+    <t>Verify user is able to compare products after login</t>
+  </si>
+  <si>
+    <t>Verify user is able to compare products without login</t>
+  </si>
+  <si>
+    <t>verify user is able to add item to cart from comparison page</t>
+  </si>
+  <si>
+    <t>verify user is unable to get comparison list without selecting products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Click on comparison icon of products                                         3. click on comparison page                   4. varify correct item is comparing                                    </t>
+  </si>
+  <si>
+    <t>User is on the application page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on comparison icon of products                                         2. click on comparison page                   3. varify correct item is comparing                                    </t>
+  </si>
+  <si>
+    <t>valid products should be compared</t>
+  </si>
+  <si>
+    <t>valid credential for login and item should be added in the comparison page</t>
+  </si>
+  <si>
+    <t>item should be added in the comparison page</t>
+  </si>
+  <si>
+    <t>valid products should be compared and should get success msg after adding to the cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. Click on comparison icon of products                                         3. click on comparison page                   4. varify correct item is comparing                                     5. click on add to cart button of the specified product                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the application                           2. click on comparison page icon                                                                                                           </t>
+  </si>
+  <si>
+    <t>Empty comparison list should be visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid credential for login </t>
+  </si>
+  <si>
+    <t>varify user is able to search by product and product category</t>
+  </si>
+  <si>
+    <t>verify user is able to search by product and select category from search result page</t>
+  </si>
+  <si>
+    <t>verify user is able to search by product category and enter keyword on search result page</t>
+  </si>
+  <si>
+    <t>verify user is able to get product from shop by  category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter product name and its category                                        2. Click on search button                                                                        </t>
+  </si>
+  <si>
+    <t>Search result page should be displayed</t>
+  </si>
+  <si>
+    <t>should select valid category from drop down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter product name              2. Click on search button             3. select valid category from drop down on result page                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. select valid category              2. Click on search button             3. enter keyword on result page                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. select valid top categories                                                                                                                             </t>
   </si>
 </sst>
 </file>
@@ -1426,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1557,7 +1680,7 @@
     </row>
     <row r="6" spans="1:8" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>186</v>
@@ -1579,7 +1702,7 @@
     </row>
     <row r="7" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>171</v>
@@ -1616,6 +1739,442 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="171.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="171.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="171.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1802,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2625,7 +3184,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2672,7 +3231,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>104</v>
